--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8D5327-F3E8-47D3-85D8-D9565530B268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB86ECDA-0216-46AC-84AB-8733A06FD50E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="-120" windowWidth="23820" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19290" yWindow="-2705" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,12 +406,12 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,7 +422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -433,7 +433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -444,7 +444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -455,7 +455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -466,7 +466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -477,7 +477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -488,7 +488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -499,7 +499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>2</v>
       </c>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB86ECDA-0216-46AC-84AB-8733A06FD50E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2444AE-8490-480F-8844-A94C59F2E4F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19290" yWindow="-2705" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Stim</t>
   </si>
@@ -28,64 +28,73 @@
     <t>CorrResp</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>imStim</t>
+  </si>
+  <si>
+    <t>media/ddnb.png</t>
+  </si>
+  <si>
+    <t>media/djnb.png</t>
+  </si>
+  <si>
+    <t>media/dnnb.png</t>
+  </si>
+  <si>
+    <t>media/dinb.png</t>
+  </si>
+  <si>
+    <t>imStim_r</t>
+  </si>
+  <si>
+    <t>media/djnb_r.png</t>
+  </si>
+  <si>
+    <t>media/dnnb_r.png</t>
+  </si>
+  <si>
+    <t>media/dinb_r.png</t>
+  </si>
+  <si>
+    <t>media/ddnb_r.png</t>
+  </si>
+  <si>
+    <t>imStim_g</t>
+  </si>
+  <si>
+    <t>media/djnb_g.png</t>
+  </si>
+  <si>
+    <t>media/dnnb_g.png</t>
+  </si>
+  <si>
+    <t>media/dinb_g.png</t>
+  </si>
+  <si>
+    <t>media/ddnb_g.png</t>
+  </si>
+  <si>
     <t>h</t>
   </si>
   <si>
+    <t>u</t>
+  </si>
+  <si>
     <t>l</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>imStim</t>
-  </si>
-  <si>
-    <t>media/danb.png</t>
-  </si>
-  <si>
-    <t>media/dbnb.png</t>
-  </si>
-  <si>
-    <t>media/dcnb.png</t>
-  </si>
-  <si>
-    <t>media/ddnb.png</t>
-  </si>
-  <si>
-    <t>media/denb.png</t>
-  </si>
-  <si>
-    <t>media/dfnb.png</t>
-  </si>
-  <si>
-    <t>media/dgnb.png</t>
-  </si>
-  <si>
-    <t>media/dhnb.png</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
+    <t>media/hand.png</t>
+  </si>
+  <si>
+    <t>y_pos</t>
+  </si>
+  <si>
+    <t>x_pos</t>
+  </si>
+  <si>
+    <t>Hand</t>
   </si>
 </sst>
 </file>
@@ -403,15 +412,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,95 +434,126 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="G2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.08</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>0.1</v>
+      </c>
+      <c r="G5">
+        <v>0.04</v>
+      </c>
+      <c r="H5" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2444AE-8490-480F-8844-A94C59F2E4F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A1565E-7287-4885-8908-AA3FE59B7B50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="-2705" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Stim</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>Hand</t>
+  </si>
+  <si>
+    <t>Ctx_Color</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>blue</t>
   </si>
 </sst>
 </file>
@@ -412,21 +421,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,25 +443,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -460,25 +472,28 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-3.7999999999999999E-2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -486,25 +501,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.4E-2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -512,25 +530,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.08</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -538,21 +559,24 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.1</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.04</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>21</v>
       </c>
     </row>
